--- a/SP_Sklad/TempLate/WriteOff.xlsx
+++ b/SP_Sklad/TempLate/WriteOff.xlsx
@@ -15,7 +15,7 @@
     <definedName name="WayBillItems">Лист1!$A$10:$J$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -69,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
-    <numFmt numFmtId="177" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -342,7 +342,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -769,11 +769,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1011,73 +1011,6 @@
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="12.75"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="12.75"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="12.75"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="12.75"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="J7:J8"/>
